--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0implement/obj_recordpercentage0parallel_number3dynamic0implement34959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0implement/obj_recordpercentage0parallel_number3dynamic0implement34959.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9594035000000076</v>
+        <v>0.8293194000000312</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09625750000000721</v>
+        <v>0.09921050000002651</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9594035000000076</v>
+        <v>0.8293194000000312</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09625750000000721</v>
+        <v>0.09921050000002651</v>
       </c>
     </row>
   </sheetData>
